--- a/example/yakoun-population/data/visit.xlsx
+++ b/example/yakoun-population/data/visit.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aylapearson/Code/intro-to-r-scripts/example/yakoun-population/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aylapearson/Code/intro-to-R/example/yakoun-population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2EFEC3-E019-DA49-B1D7-973006FA54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C1E12-4101-F541-B9CF-A4E20B90AA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="visit" sheetId="1" r:id="rId1"/>
+    <sheet name="visit_19" sheetId="1" r:id="rId1"/>
+    <sheet name="visit_20" sheetId="2" r:id="rId2"/>
+    <sheet name="visit_21" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -887,10 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -963,99 +967,175 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2020</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C099A5-F749-D046-90E3-B9CFD4E87158}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721433E-814F-B942-94E5-3A106B715F28}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>